--- a/biology/Botanique/Brachypodium/Brachypodium.xlsx
+++ b/biology/Botanique/Brachypodium/Brachypodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachypodium (les Brachypodes) est un genre de plantes herbacées monocotylédones de la famille des Poaceae (graminées), originaire des régions tempérées d'Eurasie, d'Afrique et d'Amérique latine. C'est l'unique genre de la tribu des Brachypodieae (tribu monotypique).
 Il comprend une vingtaine d'espèces qui peuvent être observées dans les régions tempérées et subtropicales de l'ensemble du globe.
-Étymologie : le nom générique Brachypodium est formé des racines grecques brachys (court) et podion (petit pied), en référence au très court pédicelle des épillets (subsessiles)[2].
+Étymologie : le nom générique Brachypodium est formé des racines grecques brachys (court) et podion (petit pied), en référence au très court pédicelle des épillets (subsessiles).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre appartient à la sous-famille des Pooideae et est l'unique représentant de la tribu des Brachypodieae. Le genre est proche de la racine des Pooideae et est monophylétique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre appartient à la sous-famille des Pooideae et est l'unique représentant de la tribu des Brachypodieae. Le genre est proche de la racine des Pooideae et est monophylétique.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (9 septembre 2016)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (9 septembre 2016) :
 Brachypodium × ambrosii Sennen, Treb. Mus. Ci. Nat. Barcelona (1931)
 Brachypodium × apollinaris Sennen, Treb. Mus. Ci. Nat. Barcelona (1931)
 Brachypodium arbuscula Gay ex Knoche (1923)
@@ -598,7 +614,9 @@
           <t>Consommateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les chenilles des papillons de jour (rhopalocères) suivants se nourrissent d'espèces de Brachypodium :
 Demi-deuil ou Échiquier commun, Melanargia galathea, (sur Brachypodium pinnatum),
